--- a/prototype/download/template/学员模板.xlsx
+++ b/prototype/download/template/学员模板.xlsx
@@ -73,6 +73,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+请务必使用选择框来选择</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K1" authorId="0">
       <text>
         <r>
@@ -110,6 +136,30 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+为后面追踪还款而准备的属性</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
@@ -131,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,18 +303,6 @@
   </si>
   <si>
     <t>计算机科学与应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已放款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -451,12 +489,25 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>合同签约日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+  </si>
+  <si>
+    <t>已放款</t>
+  </si>
+  <si>
+    <t>人才市场</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +562,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -842,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -859,100 +923,105 @@
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="18.75" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="11.375" customWidth="1"/>
-    <col min="18" max="18" width="18.5" customWidth="1"/>
-    <col min="19" max="19" width="13.25" customWidth="1"/>
-    <col min="20" max="20" width="10.375" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="23" customWidth="1"/>
+    <col min="16" max="16" width="11.375" customWidth="1"/>
+    <col min="19" max="19" width="18.5" customWidth="1"/>
+    <col min="20" max="20" width="13.25" customWidth="1"/>
+    <col min="21" max="21" width="10.375" customWidth="1"/>
+    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -981,149 +1050,164 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1">
+        <v>42001</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" s="1">
+        <v>42186</v>
+      </c>
+      <c r="V2" t="s">
         <v>29</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" s="1">
+        <v>42100</v>
+      </c>
+      <c r="X2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Y2">
+        <v>18909876543</v>
+      </c>
+      <c r="Z2" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="1">
-        <v>42186</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="AA2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="1">
-        <v>42100</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2">
-        <v>18909876543</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N33" s="3"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O33" s="3"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="输入不正确，请通过下拉框选择" sqref="J2:J62">
+      <formula1>"本科,专科,硕士,博士,高中,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="输入不正确，请选择" sqref="K2:K63">
+      <formula1>"已放款,未放款,信用卡,现金"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="输入不正确，请选择" sqref="M2:M55">
+      <formula1>"人才市场,院校,转介绍,网络,其它"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
   </hyperlinks>
